--- a/InputData/plcy-schd/FoPITY/Frac of Pol Impl This Yr - 3 - Current Trajectory Scenario.xlsx
+++ b/InputData/plcy-schd/FoPITY/Frac of Pol Impl This Yr - 3 - Current Trajectory Scenario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="6705" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="6705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -696,11 +696,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="350947968"/>
-        <c:axId val="351577984"/>
+        <c:axId val="32384512"/>
+        <c:axId val="123958400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="350947968"/>
+        <c:axId val="32384512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="351577984"/>
+        <c:crossAx val="123958400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -718,7 +718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="351577984"/>
+        <c:axId val="123958400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -729,7 +729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="350947968"/>
+        <c:crossAx val="32384512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1076,17 +1076,17 @@
       <selection activeCell="T79" sqref="T79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1094,72 +1094,72 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2017</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1199,168 +1199,168 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B29" s="19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B31" s="19" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B34" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B35" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>62</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="6" t="s">
         <v>59</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="8"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="6" t="s">
         <v>60</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="C60" s="7"/>
       <c r="D60" s="8"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="9" t="s">
         <v>61</v>
       </c>
@@ -1417,21 +1417,21 @@
   </sheetPr>
   <dimension ref="A1:AI139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B97" sqref="B97:N97"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="35" width="9.140625" style="16"/>
-    <col min="36" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="35" width="9.1328125" style="16"/>
+    <col min="36" max="16384" width="9.1328125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>37</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1582,7 +1582,7 @@
       <c r="AH2" s="15"/>
       <c r="AI2" s="15"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="16">
         <v>0</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1641,7 +1641,7 @@
       <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>0</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="AH6" s="15"/>
       <c r="AI6" s="15"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="16">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>84</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="16">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>85</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="AH10" s="15"/>
       <c r="AI10" s="15"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="16">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>86</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="16">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>87</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="AH14" s="15"/>
       <c r="AI14" s="15"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="16">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>123</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="AH16" s="15"/>
       <c r="AI16" s="15"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="16">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="AH18" s="15"/>
       <c r="AI18" s="15"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <v>0</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
         <v>0</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="AH24" s="15"/>
       <c r="AI24" s="15"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
         <v>0</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>88</v>
       </c>
@@ -2293,7 +2293,7 @@
       <c r="AH26" s="15"/>
       <c r="AI26" s="15"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="16">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2356,7 +2356,7 @@
       <c r="AH28" s="15"/>
       <c r="AI28" s="15"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
         <v>0</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2427,7 +2427,7 @@
       <c r="AH30" s="15"/>
       <c r="AI30" s="15"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="16">
         <v>0</v>
       </c>
@@ -2441,13 +2441,13 @@
         <v>1</v>
       </c>
       <c r="F31" s="16">
-        <v>0.94725000000000004</v>
+        <v>1</v>
       </c>
       <c r="G31" s="16">
-        <v>0.89978499999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="AH32" s="15"/>
       <c r="AI32" s="15"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="16">
         <v>0</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="AH34" s="15"/>
       <c r="AI34" s="15"/>
     </row>
-    <row r="35" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35" s="16">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2605,7 +2605,7 @@
       <c r="AH36" s="15"/>
       <c r="AI36" s="15"/>
     </row>
-    <row r="37" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" s="16">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="AH38" s="15"/>
       <c r="AI38" s="15"/>
     </row>
-    <row r="39" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39" s="16">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -2719,7 +2719,7 @@
       <c r="AH40" s="15"/>
       <c r="AI40" s="15"/>
     </row>
-    <row r="41" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41" s="16">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2774,7 +2774,7 @@
       <c r="AH42" s="15"/>
       <c r="AI42" s="15"/>
     </row>
-    <row r="43" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43" s="16">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -2830,7 +2830,7 @@
       <c r="AH44" s="15"/>
       <c r="AI44" s="15"/>
     </row>
-    <row r="45" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45"/>
       <c r="B45" s="16">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -2892,7 +2892,7 @@
       <c r="AH46" s="15"/>
       <c r="AI46" s="15"/>
     </row>
-    <row r="47" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47"/>
       <c r="B47" s="16">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>122</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="AH48" s="15"/>
       <c r="AI48" s="15"/>
     </row>
-    <row r="49" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49"/>
       <c r="B49" s="16">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -3011,7 +3011,7 @@
       <c r="AH50" s="15"/>
       <c r="AI50" s="15"/>
     </row>
-    <row r="51" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51"/>
       <c r="B51" s="16">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="12" t="s">
         <v>11</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="AH52" s="15"/>
       <c r="AI52" s="15"/>
     </row>
-    <row r="53" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="12"/>
       <c r="B53" s="16">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
         <v>97</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="AH54" s="15"/>
       <c r="AI54" s="15"/>
     </row>
-    <row r="55" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="12"/>
       <c r="B55" s="16">
         <v>0</v>
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="12" t="s">
         <v>12</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="AH56" s="15"/>
       <c r="AI56" s="15"/>
     </row>
-    <row r="57" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="12"/>
       <c r="B57" s="16">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="12" t="s">
         <v>13</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="AH58" s="15"/>
       <c r="AI58" s="15"/>
     </row>
-    <row r="59" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="12"/>
       <c r="B59" s="16">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="12" t="s">
         <v>14</v>
       </c>
@@ -3311,7 +3311,7 @@
       <c r="AH60" s="15"/>
       <c r="AI60" s="15"/>
     </row>
-    <row r="61" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61"/>
       <c r="B61" s="16">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="AH62" s="15"/>
       <c r="AI62" s="15"/>
     </row>
-    <row r="63" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63"/>
       <c r="B63" s="16">
         <v>0</v>
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="AH64" s="15"/>
       <c r="AI64" s="15"/>
     </row>
-    <row r="65" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="12"/>
       <c r="B65" s="16">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="12" t="s">
         <v>89</v>
       </c>
@@ -3490,7 +3490,7 @@
       <c r="AH66" s="15"/>
       <c r="AI66" s="15"/>
     </row>
-    <row r="67" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="12"/>
       <c r="B67" s="16">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="12" t="s">
         <v>15</v>
       </c>
@@ -3547,7 +3547,7 @@
       <c r="AH68" s="15"/>
       <c r="AI68" s="15"/>
     </row>
-    <row r="69" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="12"/>
       <c r="B69" s="16">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="12" t="s">
         <v>16</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="AH70" s="15"/>
       <c r="AI70" s="15"/>
     </row>
-    <row r="71" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="12"/>
       <c r="B71" s="16">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="12" t="s">
         <v>17</v>
       </c>
@@ -3661,7 +3661,7 @@
       <c r="AH72" s="15"/>
       <c r="AI72" s="15"/>
     </row>
-    <row r="73" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="12"/>
       <c r="B73" s="16">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="12" t="s">
         <v>18</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="AH74" s="15"/>
       <c r="AI74" s="15"/>
     </row>
-    <row r="75" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="12"/>
       <c r="B75" s="16">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="12" t="s">
         <v>54</v>
       </c>
@@ -3775,7 +3775,7 @@
       <c r="AH76" s="15"/>
       <c r="AI76" s="15"/>
     </row>
-    <row r="77" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="12"/>
       <c r="B77" s="16">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="AH78" s="15"/>
       <c r="AI78" s="15"/>
     </row>
-    <row r="79" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79"/>
       <c r="B79" s="16">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>56</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="AH80" s="15"/>
       <c r="AI80" s="15"/>
     </row>
-    <row r="81" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81"/>
       <c r="B81" s="16">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -3946,7 +3946,7 @@
       <c r="AH82" s="15"/>
       <c r="AI82" s="15"/>
     </row>
-    <row r="83" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83"/>
       <c r="B83" s="16">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="AH84" s="15"/>
       <c r="AI84" s="15"/>
     </row>
-    <row r="85" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85"/>
       <c r="B85" s="16">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -4060,7 +4060,7 @@
       <c r="AH86" s="15"/>
       <c r="AI86" s="15"/>
     </row>
-    <row r="87" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87"/>
       <c r="B87" s="16">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="12" t="s">
         <v>22</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="AH88" s="15"/>
       <c r="AI88" s="15"/>
     </row>
-    <row r="89" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="12"/>
       <c r="B89" s="16">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="12" t="s">
         <v>100</v>
       </c>
@@ -4174,7 +4174,7 @@
       <c r="AH90" s="15"/>
       <c r="AI90" s="15"/>
     </row>
-    <row r="91" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="12"/>
       <c r="B91" s="16">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="12" t="s">
         <v>71</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="AH92" s="15"/>
       <c r="AI92" s="15"/>
     </row>
-    <row r="93" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="12"/>
       <c r="B93" s="16">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="12" t="s">
         <v>23</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="AH94" s="15"/>
       <c r="AI94" s="15"/>
     </row>
-    <row r="95" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95"/>
       <c r="B95" s="16">
         <v>0</v>
@@ -4315,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="12" t="s">
         <v>24</v>
       </c>
@@ -4382,7 +4382,7 @@
       <c r="AH96" s="15"/>
       <c r="AI96" s="15"/>
     </row>
-    <row r="97" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="12"/>
       <c r="B97" s="16">
         <v>5.0019747594676887E-2</v>
@@ -4427,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="12" t="s">
         <v>25</v>
       </c>
@@ -4472,7 +4472,7 @@
       <c r="AH98" s="15"/>
       <c r="AI98" s="15"/>
     </row>
-    <row r="99" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="12"/>
       <c r="B99" s="16">
         <v>0</v>
@@ -4484,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A100" s="12" t="s">
         <v>26</v>
       </c>
@@ -4531,7 +4531,7 @@
       <c r="AH100" s="15"/>
       <c r="AI100" s="15"/>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A101" s="12"/>
       <c r="B101" s="16">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A102" s="12" t="s">
         <v>27</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="AH102" s="15"/>
       <c r="AI102" s="15"/>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B103" s="16">
         <v>0</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>75</v>
       </c>
@@ -4652,7 +4652,7 @@
       <c r="AH104" s="15"/>
       <c r="AI104" s="15"/>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B105" s="16">
         <v>0</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>99</v>
       </c>
@@ -4708,7 +4708,7 @@
       <c r="AH106" s="15"/>
       <c r="AI106" s="15"/>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B107" s="16">
         <v>0</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>63</v>
       </c>
@@ -4764,7 +4764,7 @@
       <c r="AH108" s="15"/>
       <c r="AI108" s="15"/>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B109" s="16">
         <v>0</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>58</v>
       </c>
@@ -4820,7 +4820,7 @@
       <c r="AH110" s="15"/>
       <c r="AI110" s="15"/>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B111" s="16">
         <v>0</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>57</v>
       </c>
@@ -4876,7 +4876,7 @@
       <c r="AH112" s="15"/>
       <c r="AI112" s="15"/>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B113" s="16">
         <v>0</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>65</v>
       </c>
@@ -4932,7 +4932,7 @@
       <c r="AH114" s="15"/>
       <c r="AI114" s="15"/>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B115" s="16">
         <v>0</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>82</v>
       </c>
@@ -4988,7 +4988,7 @@
       <c r="AH116" s="15"/>
       <c r="AI116" s="15"/>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B117" s="16">
         <v>0</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>83</v>
       </c>
@@ -5044,7 +5044,7 @@
       <c r="AH118" s="15"/>
       <c r="AI118" s="15"/>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B119" s="16">
         <v>0</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -5100,7 +5100,7 @@
       <c r="AH120" s="15"/>
       <c r="AI120" s="15"/>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B121" s="16">
         <v>0</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>29</v>
       </c>
@@ -5156,7 +5156,7 @@
       <c r="AH122" s="15"/>
       <c r="AI122" s="15"/>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B123" s="16">
         <v>0</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>30</v>
       </c>
@@ -5212,7 +5212,7 @@
       <c r="AH124" s="15"/>
       <c r="AI124" s="15"/>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B125" s="16">
         <v>0</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>31</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="AH126" s="15"/>
       <c r="AI126" s="15"/>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B127" s="16">
         <v>0</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>32</v>
       </c>
@@ -5324,7 +5324,7 @@
       <c r="AH128" s="15"/>
       <c r="AI128" s="15"/>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B129" s="16">
         <v>0</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>33</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="AH130" s="15"/>
       <c r="AI130" s="15"/>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B131" s="16">
         <v>0</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>34</v>
       </c>
@@ -5436,7 +5436,7 @@
       <c r="AH132" s="15"/>
       <c r="AI132" s="15"/>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B133" s="16">
         <v>0</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>35</v>
       </c>
@@ -5492,7 +5492,7 @@
       <c r="AH134" s="15"/>
       <c r="AI134" s="15"/>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B135" s="16">
         <v>0</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>36</v>
       </c>
@@ -5548,7 +5548,7 @@
       <c r="AH136" s="15"/>
       <c r="AI136" s="15"/>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B137" s="16">
         <v>0</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>0</v>
       </c>
@@ -5604,7 +5604,7 @@
       <c r="AH138" s="15"/>
       <c r="AI138" s="15"/>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B139" s="16">
         <v>0</v>
       </c>
@@ -5635,12 +5635,12 @@
       <selection pane="bottomRight" activeCell="O70" sqref="A1:O70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>2017</v>
       </c>
@@ -5704,7 +5704,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>84</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>85</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>86</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>87</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>123</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>74</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>101</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -6608,18 +6608,18 @@
       </c>
       <c r="M16">
         <f>IF(M$1=2050,TREND(INDEX('Set Schedules Here'!31:31,1,MATCH(M$1,'Set Schedules Here'!30:30,0)),INDEX('Set Schedules Here'!30:30,1,MATCH(M$1,'Set Schedules Here'!30:30,0)),M$1),TREND(INDEX('Set Schedules Here'!31:31,1,MATCH(M$1,'Set Schedules Here'!30:30,1)):INDEX('Set Schedules Here'!31:31,1,MATCH(M$1,'Set Schedules Here'!30:30,1)+1),INDEX('Set Schedules Here'!30:30,1,MATCH(M$1,'Set Schedules Here'!30:30,1)):INDEX('Set Schedules Here'!30:30,1,MATCH(M$1,'Set Schedules Here'!30:30,1)+1),M$1))</f>
-        <v>0.99999999999998579</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <f>IF(N$1=2050,TREND(INDEX('Set Schedules Here'!31:31,1,MATCH(N$1,'Set Schedules Here'!30:30,0)),INDEX('Set Schedules Here'!30:30,1,MATCH(N$1,'Set Schedules Here'!30:30,0)),N$1),TREND(INDEX('Set Schedules Here'!31:31,1,MATCH(N$1,'Set Schedules Here'!30:30,1)):INDEX('Set Schedules Here'!31:31,1,MATCH(N$1,'Set Schedules Here'!30:30,1)+1),INDEX('Set Schedules Here'!30:30,1,MATCH(N$1,'Set Schedules Here'!30:30,1)):INDEX('Set Schedules Here'!30:30,1,MATCH(N$1,'Set Schedules Here'!30:30,1)+1),N$1))</f>
-        <v>0.94725000000001103</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <f>IF(O$1=2030,TREND(INDEX('Set Schedules Here'!31:31,1,MATCH(O$1,'Set Schedules Here'!30:30,0)),INDEX('Set Schedules Here'!30:30,1,MATCH(O$1,'Set Schedules Here'!30:30,0)),O$1),TREND(INDEX('Set Schedules Here'!31:31,1,MATCH(O$1,'Set Schedules Here'!30:30,1)):INDEX('Set Schedules Here'!31:31,1,MATCH(O$1,'Set Schedules Here'!30:30,1)+1),INDEX('Set Schedules Here'!30:30,1,MATCH(O$1,'Set Schedules Here'!30:30,1)):INDEX('Set Schedules Here'!30:30,1,MATCH(O$1,'Set Schedules Here'!30:30,1)+1),O$1))</f>
-        <v>0.89978499999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>10</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>11</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>97</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>12</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>13</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>14</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>66</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>89</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>15</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>16</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>17</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
         <v>18</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
         <v>54</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="12" t="s">
         <v>55</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="12" t="s">
         <v>56</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="12" t="s">
         <v>19</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="12" t="s">
         <v>20</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="12" t="s">
         <v>21</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="12" t="s">
         <v>22</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" s="12" t="s">
         <v>100</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="12" t="s">
         <v>71</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
         <v>23</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="12" t="s">
         <v>24</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="12" t="s">
         <v>25</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="12" t="s">
         <v>26</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="12" t="s">
         <v>27</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A53" s="12" t="s">
         <v>75</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
         <v>99</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="12" t="s">
         <v>63</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="12" t="s">
         <v>58</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="12" t="s">
         <v>57</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="12" t="s">
         <v>65</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="12" t="s">
         <v>82</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" s="12" t="s">
         <v>83</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="12" t="s">
         <v>28</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="12" t="s">
         <v>29</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="12" t="s">
         <v>30</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="12" t="s">
         <v>31</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="12" t="s">
         <v>32</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="12" t="s">
         <v>33</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="12" t="s">
         <v>34</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="12" t="s">
         <v>35</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="12" t="s">
         <v>36</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="12" t="s">
         <v>0</v>
       </c>
@@ -9926,20 +9926,20 @@
   </sheetPr>
   <dimension ref="A1:BQ70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="50" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="16384" width="9.1328125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>84</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>85</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>86</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>87</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>123</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>74</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -13192,7 +13192,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>101</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -14065,7 +14065,7 @@
       </c>
       <c r="K16" s="12">
         <f>IF(ISBLANK('Set Schedules Here'!F31),"",'Set Schedules Here'!F31)</f>
-        <v>0.94725000000000004</v>
+        <v>1</v>
       </c>
       <c r="L16" s="12">
         <f>IF(ISBLANK('Set Schedules Here'!G30),"",'Set Schedules Here'!G30)</f>
@@ -14073,7 +14073,7 @@
       </c>
       <c r="M16" s="12">
         <f>IF(ISBLANK('Set Schedules Here'!G31),"",'Set Schedules Here'!G31)</f>
-        <v>0.89978499999999995</v>
+        <v>1</v>
       </c>
       <c r="N16" s="12" t="str">
         <f>IF(ISBLANK('Set Schedules Here'!H30),"",'Set Schedules Here'!H30)</f>
@@ -14300,7 +14300,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -16239,7 +16239,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>10</v>
       </c>
@@ -17070,7 +17070,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>11</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>97</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>12</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>13</v>
       </c>
@@ -18178,7 +18178,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>14</v>
       </c>
@@ -18455,7 +18455,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>66</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>67</v>
       </c>
@@ -19009,7 +19009,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>89</v>
       </c>
@@ -19286,7 +19286,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>15</v>
       </c>
@@ -19563,7 +19563,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>16</v>
       </c>
@@ -19840,7 +19840,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>17</v>
       </c>
@@ -20117,7 +20117,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>18</v>
       </c>
@@ -20394,7 +20394,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>54</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>55</v>
       </c>
@@ -20948,7 +20948,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>56</v>
       </c>
@@ -21225,7 +21225,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>19</v>
       </c>
@@ -21502,7 +21502,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:69" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>20</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A44" s="12" t="s">
         <v>21</v>
       </c>
@@ -22056,7 +22056,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A45" s="12" t="s">
         <v>22</v>
       </c>
@@ -22333,7 +22333,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A46" s="12" t="s">
         <v>100</v>
       </c>
@@ -22610,7 +22610,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A47" s="12" t="s">
         <v>71</v>
       </c>
@@ -22887,7 +22887,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
         <v>23</v>
       </c>
@@ -23164,7 +23164,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A49" s="12" t="s">
         <v>24</v>
       </c>
@@ -23441,7 +23441,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A50" s="12" t="s">
         <v>25</v>
       </c>
@@ -23718,7 +23718,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A51" s="12" t="s">
         <v>26</v>
       </c>
@@ -23995,7 +23995,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A52" s="12" t="s">
         <v>27</v>
       </c>
@@ -24272,7 +24272,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A53" s="12" t="s">
         <v>75</v>
       </c>
@@ -24549,7 +24549,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A54" s="12" t="s">
         <v>99</v>
       </c>
@@ -24826,7 +24826,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A55" s="12" t="s">
         <v>63</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A56" s="12" t="s">
         <v>58</v>
       </c>
@@ -25380,7 +25380,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A57" s="12" t="s">
         <v>57</v>
       </c>
@@ -25657,7 +25657,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A58" s="12" t="s">
         <v>65</v>
       </c>
@@ -25934,7 +25934,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A59" s="12" t="s">
         <v>82</v>
       </c>
@@ -26211,7 +26211,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A60" s="12" t="s">
         <v>83</v>
       </c>
@@ -26488,7 +26488,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A61" s="12" t="s">
         <v>28</v>
       </c>
@@ -26765,7 +26765,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A62" s="12" t="s">
         <v>29</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A63" s="12" t="s">
         <v>30</v>
       </c>
@@ -27319,7 +27319,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A64" s="12" t="s">
         <v>31</v>
       </c>
@@ -27596,7 +27596,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A65" s="12" t="s">
         <v>32</v>
       </c>
@@ -27873,7 +27873,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A66" s="12" t="s">
         <v>33</v>
       </c>
@@ -28150,7 +28150,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A67" s="12" t="s">
         <v>34</v>
       </c>
@@ -28427,7 +28427,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A68" s="12" t="s">
         <v>35</v>
       </c>
@@ -28704,7 +28704,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A69" s="12" t="s">
         <v>36</v>
       </c>
@@ -28981,7 +28981,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:69" x14ac:dyDescent="0.45">
       <c r="A70" s="12" t="s">
         <v>0</v>
       </c>
